--- a/files/OES_Report(1).xlsx
+++ b/files/OES_Report(1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="OES Sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,96 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="120">
-  <si>
-    <t xml:space="preserve">Occupation (SOC code)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Employment</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(1)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Employment percent relative standard error</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(3)</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="107">
+  <si>
+    <t xml:space="preserve">Occupation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employment</t>
   </si>
   <si>
     <t xml:space="preserve">Hourly mean wage</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Annual mean wage</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(2)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Wage percent relative standard error</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(3)</t>
-    </r>
+    <t xml:space="preserve">Annual mean wage</t>
   </si>
   <si>
     <t xml:space="preserve">Hourly 10th percentile wage</t>
@@ -238,18 +160,12 @@
     <t xml:space="preserve">     1241000</t>
   </si>
   <si>
-    <t xml:space="preserve">         0.7</t>
-  </si>
-  <si>
     <t xml:space="preserve">       37.46</t>
   </si>
   <si>
     <t xml:space="preserve">       77920</t>
   </si>
   <si>
-    <t xml:space="preserve">         0.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">       20.68</t>
   </si>
   <si>
@@ -286,18 +202,12 @@
     <t xml:space="preserve">      849230</t>
   </si>
   <si>
-    <t xml:space="preserve">         1.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">       51.30</t>
   </si>
   <si>
     <t xml:space="preserve">      106710</t>
   </si>
   <si>
-    <t xml:space="preserve">         0.9</t>
-  </si>
-  <si>
     <t xml:space="preserve">       28.79</t>
   </si>
   <si>
@@ -334,9 +244,6 @@
     <t xml:space="preserve">      291290</t>
   </si>
   <si>
-    <t xml:space="preserve">         1.6</t>
-  </si>
-  <si>
     <t xml:space="preserve">       43.99</t>
   </si>
   <si>
@@ -379,18 +286,12 @@
     <t xml:space="preserve">       16710</t>
   </si>
   <si>
-    <t xml:space="preserve">         4.9</t>
-  </si>
-  <si>
     <t xml:space="preserve">       59.17</t>
   </si>
   <si>
     <t xml:space="preserve">      123080</t>
   </si>
   <si>
-    <t xml:space="preserve">         1.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">       27.61</t>
   </si>
   <si>
@@ -427,9 +328,6 @@
     <t xml:space="preserve">       38600</t>
   </si>
   <si>
-    <t xml:space="preserve">         3.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">      121.10</t>
   </si>
   <si>
@@ -457,9 +355,6 @@
     <t xml:space="preserve">       35460</t>
   </si>
   <si>
-    <t xml:space="preserve">         2.6</t>
-  </si>
-  <si>
     <t xml:space="preserve">       13.38</t>
   </si>
   <si>
@@ -502,16 +397,10 @@
     <t xml:space="preserve">      428260</t>
   </si>
   <si>
-    <t xml:space="preserve">         1.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">       27.44</t>
   </si>
   <si>
     <t xml:space="preserve">       57070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         0.6</t>
   </si>
   <si>
     <t xml:space="preserve">       15.13</t>
@@ -673,19 +562,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P65536"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="16" min="1" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="14" min="1" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,376 +617,315 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="2" t="s">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="2" t="s">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="2" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="2" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="L6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>86</v>
+      <c r="K7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="2" t="s">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="L8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
